--- a/biology/Botanique/Rhodophyceae/Rhodophyceae.xlsx
+++ b/biology/Botanique/Rhodophyceae/Rhodophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodophycées
 Les Rhodophyceae (ou Rhodophycées) sont une classe de Rhodophyta, c'est-à-dire d'« algues rouges ».
-Ce taxon fut décrit par Thuret en 1855. La description fut réformée par Gottlob Ludwig Rabenhorst (1806-1881) en 1863. Sina M. Adl et al.[1] ont proposé une autre réforme en 2005. Ce taxon n'existe plus dans la classification proposée par Yoon et al., 2006[2], et est remplacé par les Rhodophytina.
+Ce taxon fut décrit par Thuret en 1855. La description fut réformée par Gottlob Ludwig Rabenhorst (1806-1881) en 1863. Sina M. Adl et al. ont proposé une autre réforme en 2005. Ce taxon n'existe plus dans la classification proposée par Yoon et al., 2006, et est remplacé par les Rhodophytina.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (15 décembre 2006)[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (15 décembre 2006) : 
 sous-classe des Bangiophycidae
 ordre des Bangiales
 ordre des Goniotrichales
@@ -528,21 +542,21 @@
 ordre des Gigartinales
 ordre des Nemaliales
 ordre des Rhodymeniales
-Selon ITIS      (15 juin 2012)[4] (sous le nom Rhodophytina) :
+Selon ITIS      (15 juin 2012) (sous le nom Rhodophytina) :
 classe des Bangiophyceae
 classe des Compsopogonophyceae
 classe des Florideophyceae
 classe des Porphyridiophyceae
 classe des Rhodellophyceae
 classe des Stylonematophyceae
-Selon NCBI  (15 juin 2012)[5] (sous le nom Rhodophyta) :
+Selon NCBI  (15 juin 2012) (sous le nom Rhodophyta) :
 non-classé Rhodophyta
 classe des Bangiophyceae
 classe des Compsopogonophyceae
 classe des Florideophyceae
 classe des Rhodellophyceae
 classe des Stylonematophyceae
-Selon Paleobiology Database                   (15 juin 2012)[6] :
+Selon Paleobiology Database                   (15 juin 2012) :
 Aoujgaliaceae
 Archaeolithophyllales
 Calcifoliida
